--- a/app/src/main/res/raw/graph.xlsx
+++ b/app/src/main/res/raw/graph.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Испытательное оборудование</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">#PROTOCOL_NUMBER#</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                             </t>
-  </si>
-  <si>
     <t xml:space="preserve">Дата: </t>
   </si>
   <si>
@@ -53,42 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">Значения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Действующее значение, кВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Среднее значение, кВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Амлитудное значение, кВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#RMS#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AVR#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#AMP#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Частота, Гц</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коэффициент амплитуды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коэффицент формы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FREQ#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#COEFAMP#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#COEFFORM#</t>
   </si>
 </sst>
 </file>
@@ -98,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -136,13 +97,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
@@ -160,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -168,20 +122,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -208,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,20 +181,16 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -265,11 +201,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,13 +228,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>172800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>846000</xdr:colOff>
+      <xdr:colOff>843840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -311,8 +247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7388640" y="47160"/>
-          <a:ext cx="673200" cy="716400"/>
+          <a:off x="7388640" y="36360"/>
+          <a:ext cx="671040" cy="684720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -332,19 +268,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -354,7 +290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -364,7 +300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -374,64 +310,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+    <row r="11" customFormat="false" ht="17.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="9"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -439,113 +366,14 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
+  <mergeCells count="6">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
